--- a/src/owl/temporal extensions/temporalized relations/documentation/bfo-2020-terms.xlsx
+++ b/src/owl/temporal extensions/temporalized relations/documentation/bfo-2020-terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanr/repos/BFO-2020/21838-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB5192-DB5A-2147-A84B-F6A90077DE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25BC31C-0018-2748-BFBF-B0991E3716EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43660" yWindow="3700" windowWidth="45040" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,9 +297,6 @@
     <t xml:space="preserve">The sum of patterns of ink on the pages of this copy of War and Peace concretizes the novel written by Tolstoy. </t>
   </si>
   <si>
-    <t xml:space="preserve">This set of dots and dashes concretizes this Morse code message.  </t>
-  </si>
-  <si>
     <t>As for A.1.2.66, A.1.2.67, A.1.2.70, A.1.2.73, A.1.2.75–A.1.2.78.</t>
   </si>
   <si>
@@ -658,9 +655,6 @@
   </si>
   <si>
     <t>[221-BFO]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.1.2.2  </t>
   </si>
   <si>
     <r>
@@ -760,21 +754,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The material basis of the disposition of the rocket to move is its engine and the fuel supply, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>As for</t>
     </r>
     <r>
@@ -909,15 +888,9 @@
     <t>[259-BFO]</t>
   </si>
   <si>
-    <t>A.1.2.3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">instance of </t>
   </si>
   <si>
-    <t>A.1.2.4 </t>
-  </si>
-  <si>
     <t>exists at</t>
   </si>
   <si>
@@ -1776,9 +1749,6 @@
     <t>b is a site means: b is a three-dimensional immaterial entity whose boundaries either (1) (partially or wholly) coincide with the boundaries of one or more material entities or (2) have locations determined in relation to some material entity</t>
   </si>
   <si>
-    <t>A hole in a portion of cheese, a rabbit hole, the Grand Canyon, the Piazza San Marco, the kangaroo-joey-containing hole of a kangaroo pouch, your left nostril (a fiat part – the opening – of your left nasal cavity), the  lumen of your gut, the hold of a ship, the interior of the trunk of your car, a hole in an engineered floor joist.  An air traffic control region of type A is determined in terms of elevation above mean sea level of its lower and upper boundaries.</t>
-  </si>
-  <si>
     <t>b material basis of c at t =Def. c has material basis b at t</t>
   </si>
   <si>
@@ -1903,9 +1873,6 @@
   </si>
   <si>
     <t>A realizes c means: there is some material or immaterial entity d &amp; c is a realizable entity that inheres in d &amp; for all t, if b has participant d at t then c exists at t &amp; the type instantiated by b is correlated with the type instantiated by c</t>
-  </si>
-  <si>
-    <t>A is a role means:  b is a realizable entity &amp; b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be &amp; b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed</t>
   </si>
   <si>
     <t>A generically dependent continuant is an entity that exists in virtue of the fact that there is at least one of what may be multiple copies; it is the content or the pattern that the multiple copies share</t>
@@ -1959,6 +1926,27 @@
   </si>
   <si>
     <t>A g-dependent continuant b g-depends on an independent continuant c at some time =Def. for some time t (there inheres in c an s-dependent continuant which concretizes b at t)</t>
+  </si>
+  <si>
+    <t>A hole in a portion of cheese, a rabbit hole, the Grand Canyon, the Piazza San Marco, the kangaroo-joey-containing hole of a kangaroo pouch, your left nostril (a fiat part – the opening – of your left nasal cavity), the lumen of your gut, the hold of a ship, the interior of the trunk of your car, a hole in an engineered floor joist. An air traffic control region of type A is determined in terms of elevation above mean sea level of its lower and upper boundaries.</t>
+  </si>
+  <si>
+    <t>A is a role means: b is a realizable entity &amp; b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be &amp; b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The material basis of the disposition of the rocket to move is its engine and the fuel supply, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This set of dots and dashes concretizes this Morse code message. </t>
+  </si>
+  <si>
+    <t>A.1.2.2</t>
+  </si>
+  <si>
+    <t>A.1.2.3</t>
+  </si>
+  <si>
+    <t>A.1.2.4</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2423,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -2464,7 +2452,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>11</v>
@@ -2472,13 +2460,13 @@
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>599</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -2495,13 +2483,13 @@
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>252</v>
+        <v>600</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -2513,10 +2501,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>19</v>
@@ -2524,13 +2512,13 @@
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>254</v>
+        <v>601</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
@@ -2542,18 +2530,18 @@
         <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>23</v>
@@ -2565,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>24</v>
@@ -2573,17 +2561,17 @@
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>22</v>
@@ -2592,18 +2580,18 @@
         <v>22</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>26</v>
@@ -2615,18 +2603,18 @@
         <v>25</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>27</v>
@@ -2638,18 +2626,18 @@
         <v>25</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>28</v>
@@ -2661,18 +2649,18 @@
         <v>22</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>29</v>
@@ -2684,18 +2672,18 @@
         <v>22</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>30</v>
@@ -2707,18 +2695,18 @@
         <v>25</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>31</v>
@@ -2730,35 +2718,35 @@
         <v>25</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>36</v>
@@ -2767,13 +2755,13 @@
         <v>34</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>37</v>
@@ -2781,13 +2769,13 @@
     </row>
     <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>39</v>
@@ -2802,58 +2790,58 @@
         <v>38</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>43</v>
@@ -2861,16 +2849,16 @@
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>44</v>
@@ -2879,18 +2867,18 @@
         <v>45</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>46</v>
@@ -2902,245 +2890,245 @@
         <v>44</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>48</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>541</v>
+        <v>595</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>57</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>61</v>
@@ -3152,7 +3140,7 @@
         <v>60</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>62</v>
@@ -3160,13 +3148,13 @@
     </row>
     <row r="36" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>63</v>
@@ -3178,18 +3166,18 @@
         <v>59</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>64</v>
@@ -3201,24 +3189,24 @@
         <v>59</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>66</v>
@@ -3226,13 +3214,13 @@
     </row>
     <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>67</v>
@@ -3244,18 +3232,18 @@
         <v>59</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>68</v>
@@ -3267,69 +3255,69 @@
         <v>34</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>69</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>70</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>74</v>
@@ -3341,21 +3329,21 @@
         <v>73</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>73</v>
@@ -3364,18 +3352,18 @@
         <v>72</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>75</v>
@@ -3384,18 +3372,18 @@
         <v>76</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>78</v>
@@ -3404,7 +3392,7 @@
         <v>77</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -3414,16 +3402,16 @@
     </row>
     <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>80</v>
@@ -3432,21 +3420,21 @@
         <v>81</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>214</v>
+        <v>597</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>59</v>
@@ -3455,18 +3443,18 @@
         <v>80</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>83</v>
@@ -3475,23 +3463,23 @@
         <v>82</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>85</v>
@@ -3508,16 +3496,16 @@
     </row>
     <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>59</v>
@@ -3526,18 +3514,18 @@
         <v>86</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>88</v>
@@ -3549,21 +3537,21 @@
         <v>86</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>89</v>
+        <v>598</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>87</v>
@@ -3572,38 +3560,38 @@
         <v>86</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="165" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>25</v>
@@ -3612,21 +3600,21 @@
         <v>25</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>25</v>
@@ -3635,21 +3623,21 @@
         <v>25</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>25</v>
@@ -3658,21 +3646,21 @@
         <v>25</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>25</v>
@@ -3681,503 +3669,503 @@
         <v>25</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>60</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>72</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>72</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="E79" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J79" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="120" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>25</v>
@@ -4186,27 +4174,27 @@
         <v>25</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J85" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>25</v>
@@ -4215,531 +4203,531 @@
         <v>25</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
